--- a/Annexes/Pinout.xlsx
+++ b/Annexes/Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73dfd8bce089d115/EirLab/MegaBot/megabot-driver/Annexes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\OneDrive\EirLab\MegaBot\megabot-driver\Annexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{DE7EC037-C555-43DB-B247-42A6A5958DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87104461-F2DE-41C0-BBA0-FE4DE830D0B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE2733-4713-46B0-A26D-014EC8533F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{895DBB94-A4D7-42A5-B8FC-6F5A868C3DB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{895DBB94-A4D7-42A5-B8FC-6F5A868C3DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -102,12 +102,6 @@
     <t>Mux</t>
   </si>
   <si>
-    <t>TX Leg 1</t>
-  </si>
-  <si>
-    <t>TX Leg 2</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -394,6 +388,12 @@
   </si>
   <si>
     <t>trigMinMax</t>
+  </si>
+  <si>
+    <t>TX Leg A</t>
+  </si>
+  <si>
+    <t>TX Leg B</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +443,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -564,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -632,6 +639,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,10 +817,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9C984A-BFBE-4502-9BC7-C63E4B0230FC}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,45 +1157,45 @@
         <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="str" cm="1">
         <f t="array" ref="J2:J29">_xlfn.UNIQUE(Tableau2[PinName])</f>
@@ -1197,16 +1203,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="19"/>
@@ -1216,16 +1222,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="19"/>
@@ -1235,16 +1241,16 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="3" t="s">
-        <v>111</v>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="19"/>
@@ -1254,24 +1260,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="1" t="str">
@@ -1279,22 +1285,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="24"/>
       <c r="J7" s="1" t="str">
@@ -1302,22 +1308,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="24"/>
       <c r="J8" s="1" t="str">
@@ -1325,49 +1331,49 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="3" t="s">
-        <v>111</v>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="H9" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="J9" s="1" t="str">
         <v>PC_1</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="24"/>
       <c r="J10" s="1" t="str">
@@ -1375,16 +1381,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="19"/>
@@ -1394,16 +1400,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="19"/>
@@ -1413,22 +1419,22 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="3" t="s">
-        <v>111</v>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="24"/>
       <c r="J13" s="1" t="str">
@@ -1436,23 +1442,23 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="24"/>
@@ -1461,19 +1467,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="24"/>
@@ -1482,19 +1488,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="24"/>
@@ -1503,16 +1509,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="3" t="s">
-        <v>111</v>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="19"/>
@@ -1522,24 +1528,24 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H18" s="24"/>
       <c r="J18" s="1" t="str">
@@ -1547,22 +1553,22 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" s="24"/>
       <c r="J19" s="1" t="str">
@@ -1570,22 +1576,22 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" s="24"/>
       <c r="J20" s="1" t="str">
@@ -1593,52 +1599,52 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="3" t="s">
-        <v>111</v>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="H21" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="str">
         <v>PB_10</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22" s="24"/>
       <c r="J22" s="1" t="str">
@@ -1646,50 +1652,50 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="G23" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1" t="str">
         <v>PB_14</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" t="str">
@@ -1697,19 +1703,19 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="3" t="s">
-        <v>111</v>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="F25" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G25" s="19"/>
       <c r="I25" s="1"/>
@@ -1718,24 +1724,24 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="G26" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="1"/>
@@ -1744,16 +1750,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="19"/>
@@ -1764,22 +1770,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="1"/>
@@ -1788,22 +1794,22 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="1"/>
